--- a/jyx2/excel/JYX2物品.xlsx
+++ b/jyx2/excel/JYX2物品.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYCG\SVN\trunk\jyx2\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB134275-30F9-4215-9F1D-573F3310FAD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="597">
   <si>
     <t>代号</t>
   </si>
@@ -217,249 +211,1035 @@
     <t>康</t>
   </si>
   <si>
+    <t>活性饮料，迅速补充你的体力</t>
+  </si>
+  <si>
+    <t>精气丸</t>
+  </si>
+  <si>
+    <t>精气丸</t>
+  </si>
+  <si>
+    <t>中药提炼，可恢复些许体力</t>
+  </si>
+  <si>
+    <t>白岚氏鸡精</t>
+  </si>
+  <si>
+    <t>白岚</t>
+  </si>
+  <si>
+    <t>生命虚弱时赶紧饮用</t>
+  </si>
+  <si>
+    <t>小还丹</t>
+  </si>
+  <si>
     <t>小</t>
   </si>
   <si>
+    <t>疗伤药丸，可恢复少许生命</t>
+  </si>
+  <si>
     <t>玉洞黑石丹</t>
   </si>
   <si>
     <t>玉洞</t>
   </si>
   <si>
+    <t>崆峒派所有，可恢复些许生命</t>
+  </si>
+  <si>
     <t>玉真散</t>
   </si>
   <si>
     <t>玉真</t>
   </si>
   <si>
+    <t>华山派所有，可恢复些许生命</t>
+  </si>
+  <si>
+    <t>三黄宝腊丹</t>
+  </si>
+  <si>
     <t>三</t>
   </si>
   <si>
+    <t>武当派所有，可恢复些许生命</t>
+  </si>
+  <si>
+    <t>玉灵散</t>
+  </si>
+  <si>
+    <t>玉灵</t>
+  </si>
+  <si>
+    <t>少林寺之伤科圣药，可恢复生命</t>
+  </si>
+  <si>
+    <t>天香断续胶</t>
+  </si>
+  <si>
+    <t>天香断</t>
+  </si>
+  <si>
+    <t>恒山派所有，能恢复许多生命</t>
+  </si>
+  <si>
+    <t>黑玉断续膏</t>
+  </si>
+  <si>
+    <t>黑玉断</t>
+  </si>
+  <si>
+    <t>疗伤圣药，可补满生命</t>
+  </si>
+  <si>
+    <t>金牛运功散</t>
+  </si>
+  <si>
+    <t>金牛运</t>
+  </si>
+  <si>
+    <t>内伤别怕，用后可将人轻易举起</t>
+  </si>
+  <si>
     <t>人蔘</t>
   </si>
   <si>
     <t>人</t>
   </si>
   <si>
+    <t>天然补品，可恢复少许内力</t>
+  </si>
+  <si>
+    <t>白云熊胆丸</t>
+  </si>
+  <si>
+    <t>白云熊胆</t>
+  </si>
+  <si>
+    <t>恒山派所有，可恢复些许内力</t>
+  </si>
+  <si>
     <t>九花玉露丸</t>
   </si>
   <si>
     <t>九</t>
   </si>
   <si>
+    <t>桃花岛所有，可恢复内力及解毒</t>
+  </si>
+  <si>
+    <t>九转灵宝丸</t>
+  </si>
+  <si>
+    <t>全真教所有，可恢复内力</t>
+  </si>
+  <si>
+    <t>田七鲨胆散</t>
+  </si>
+  <si>
     <t>田七</t>
   </si>
   <si>
+    <t>桃花岛所制，可恢复许多内力</t>
+  </si>
+  <si>
+    <t>九转熊蛇丸</t>
+  </si>
+  <si>
+    <t>逍遥派疗伤圣药，可补满内力</t>
+  </si>
+  <si>
+    <t>无常丹</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>桃花岛所有，可恢复生命及内力</t>
+  </si>
+  <si>
+    <t>镇心理气丸</t>
+  </si>
+  <si>
+    <t>镇心理</t>
+  </si>
+  <si>
+    <t>名家配制，迅速恢复内力及生命</t>
+  </si>
+  <si>
     <t>生生造化丹</t>
   </si>
   <si>
     <t>生生造</t>
   </si>
   <si>
+    <t>疗伤圣药，有起死回生之神效</t>
+  </si>
+  <si>
     <t>天王保命丹</t>
   </si>
   <si>
     <t>天王保</t>
   </si>
   <si>
+    <t>神奇丹药，有起死回生之神效</t>
+  </si>
+  <si>
+    <t>宝济丸</t>
+  </si>
+  <si>
+    <t>宝</t>
+  </si>
+  <si>
+    <t>肚内疼痛，疑似中毒请用</t>
+  </si>
+  <si>
+    <t>黄连解毒丸</t>
+  </si>
+  <si>
+    <t>黄连</t>
+  </si>
+  <si>
+    <t>民间常见之解毒丸，由黄连所制</t>
+  </si>
+  <si>
     <t>天心解毒丹</t>
   </si>
   <si>
     <t>天心解毒</t>
   </si>
   <si>
+    <t>武当派所制之解毒丸</t>
+  </si>
+  <si>
+    <t>回阳五龙膏</t>
+  </si>
+  <si>
     <t>回</t>
   </si>
   <si>
     <t>崆峒派所有，可解毒</t>
   </si>
   <si>
+    <t>牛黄血竭丹</t>
+  </si>
+  <si>
+    <t>牛黄血竭丹</t>
+  </si>
+  <si>
+    <t>胡青牛秘方之解毒灵药</t>
+  </si>
+  <si>
+    <t>六阳正气丹</t>
+  </si>
+  <si>
+    <t>六阳正气丹</t>
+  </si>
+  <si>
+    <t>少林寺所有，可医治奇毒</t>
+  </si>
+  <si>
     <t>朱晴冰蟾</t>
   </si>
   <si>
     <t>朱晴冰</t>
   </si>
   <si>
+    <t>产于雪山，可反复吸取剧毒</t>
+  </si>
+  <si>
+    <t>伏苓首乌丸</t>
+  </si>
+  <si>
     <t>伏苓</t>
   </si>
   <si>
+    <t>千年奇药，可提高生命最大值</t>
+  </si>
+  <si>
+    <t>千年灵芝</t>
+  </si>
+  <si>
     <t>千</t>
   </si>
   <si>
+    <t>珍贵补品，可提高生命最大值</t>
+  </si>
+  <si>
+    <t>蛇胆</t>
+  </si>
+  <si>
     <t>蛇</t>
   </si>
   <si>
+    <t>毒蛇之胆，可提高内力最大值</t>
+  </si>
+  <si>
+    <t>五宝花蜜酒</t>
+  </si>
+  <si>
+    <t>五宝</t>
+  </si>
+  <si>
+    <t>五毒调制而成，提高内力最大值</t>
+  </si>
+  <si>
+    <t>腊八粥</t>
+  </si>
+  <si>
+    <t>腊八</t>
+  </si>
+  <si>
+    <t>珍奇花草制成，提高内力最大值</t>
+  </si>
+  <si>
     <t>大蟠桃</t>
   </si>
   <si>
     <t>大</t>
   </si>
   <si>
+    <t>珍贵异果，可提高内力最大值</t>
+  </si>
+  <si>
     <t>千年人蔘</t>
   </si>
   <si>
+    <t>千年物，提高生命及内力最大值</t>
+  </si>
+  <si>
+    <t>天山雪莲</t>
+  </si>
+  <si>
     <t>天山</t>
   </si>
   <si>
+    <t>珍贵物，提高生命及内力最大值</t>
+  </si>
+  <si>
+    <t>通犀地龙丸</t>
+  </si>
+  <si>
     <t>通</t>
   </si>
   <si>
+    <t>西域异兽所制，服食后百毒不侵</t>
+  </si>
+  <si>
+    <t>千年冰蚕</t>
+  </si>
+  <si>
+    <t>毒性极高，可使练毒者功力大增</t>
+  </si>
+  <si>
     <t>莽牯朱蛤</t>
   </si>
   <si>
     <t>莽牯朱蛤</t>
   </si>
   <si>
+    <t>万毒之王，服食之后百毒不侵</t>
+  </si>
+  <si>
+    <t>紫霞秘籍</t>
+  </si>
+  <si>
     <t>紫霞秘笈</t>
   </si>
   <si>
+    <t>华山派修行内功之心法</t>
+  </si>
+  <si>
+    <t>小无相功</t>
+  </si>
+  <si>
+    <t>逍遥派之内功心法</t>
+  </si>
+  <si>
     <t>十八泥偶</t>
   </si>
   <si>
     <t>十</t>
   </si>
   <si>
+    <t>记载少林罗汉伏魔神功泥偶</t>
+  </si>
+  <si>
+    <t>神照经</t>
+  </si>
+  <si>
+    <t>神照经</t>
+  </si>
+  <si>
+    <t>修习内功之奥妙法门</t>
+  </si>
+  <si>
+    <t>易筋经</t>
+  </si>
+  <si>
+    <t>易筋经</t>
+  </si>
+  <si>
+    <t>少林寺修行内功之无上心法</t>
+  </si>
+  <si>
+    <t>洗髓经</t>
+  </si>
+  <si>
     <t>洗</t>
   </si>
   <si>
+    <t>失传之内功宝典</t>
+  </si>
+  <si>
+    <t>梯云纵心法</t>
+  </si>
+  <si>
+    <t>梯云纵</t>
+  </si>
+  <si>
+    <t>武当派修行轻功之心法</t>
+  </si>
+  <si>
+    <t>神行百变</t>
+  </si>
+  <si>
+    <t>神行百变</t>
+  </si>
+  <si>
+    <t>增加轻功能力的武功秘籍</t>
+  </si>
+  <si>
     <t>凌波微步</t>
   </si>
   <si>
     <t>凌波</t>
   </si>
   <si>
+    <t>逍遥派绝学，可增强轻功能力</t>
+  </si>
+  <si>
+    <t>子午针灸经</t>
+  </si>
+  <si>
     <t>子</t>
   </si>
   <si>
+    <t>探讨穴道，经脉之医书</t>
+  </si>
+  <si>
+    <t>华陀内昭图</t>
+  </si>
+  <si>
+    <t>华陀内昭</t>
+  </si>
+  <si>
+    <t>医学宝典</t>
+  </si>
+  <si>
+    <t>胡青牛医书</t>
+  </si>
+  <si>
     <t>胡</t>
   </si>
   <si>
+    <t>蝶谷医仙医术精华之记录</t>
+  </si>
+  <si>
+    <t>五毒秘传</t>
+  </si>
+  <si>
     <t>五毒</t>
   </si>
   <si>
+    <t>五毒教秘籍，记载用毒解毒方法</t>
+  </si>
+  <si>
+    <t>毒经</t>
+  </si>
+  <si>
     <t>毒</t>
   </si>
   <si>
+    <t>毒仙王难姑所著之用毒宝典</t>
+  </si>
+  <si>
+    <t>药王神篇</t>
+  </si>
+  <si>
+    <t>药王神篇</t>
+  </si>
+  <si>
+    <t>毒手药王之毕生心血著作</t>
+  </si>
+  <si>
+    <t>铁掌拳谱</t>
+  </si>
+  <si>
+    <t>铁</t>
+  </si>
+  <si>
+    <t>铁掌帮之扬名绝学</t>
+  </si>
+  <si>
+    <t>七伤拳谱</t>
+  </si>
+  <si>
     <t>七</t>
   </si>
   <si>
+    <t>崆峒派之独门拳法</t>
+  </si>
+  <si>
+    <t>天山六阳掌</t>
+  </si>
+  <si>
+    <t>逍遥派之掌法秘籍</t>
+  </si>
+  <si>
     <t>玄冥神掌</t>
   </si>
   <si>
     <t>玄冥神掌</t>
   </si>
   <si>
+    <t>失传已久的武林绝学</t>
+  </si>
+  <si>
+    <t>太极拳经</t>
+  </si>
+  <si>
+    <t>太极拳经</t>
+  </si>
+  <si>
+    <t>武当派之新创绝学，四两拨千斤</t>
+  </si>
+  <si>
+    <t>龙象般若功</t>
+  </si>
+  <si>
+    <t>龙</t>
+  </si>
+  <si>
+    <t>密宗至高无上之护法神功</t>
+  </si>
+  <si>
+    <t>太玄经</t>
+  </si>
+  <si>
+    <t>太玄经</t>
+  </si>
+  <si>
+    <t>无人可解之神秘武功</t>
+  </si>
+  <si>
+    <t>黯然销魂掌</t>
+  </si>
+  <si>
     <t>黯</t>
   </si>
   <si>
+    <t>杨过所创之强力掌法</t>
+  </si>
+  <si>
+    <t>降龙十八掌</t>
+  </si>
+  <si>
+    <t>降龙</t>
+  </si>
+  <si>
+    <t>丐帮镇帮之宝</t>
+  </si>
+  <si>
     <t>北冥神功</t>
   </si>
   <si>
     <t>北</t>
   </si>
   <si>
+    <t>逍遥派绝学，吸人内力化为己用</t>
+  </si>
+  <si>
     <t>吸星大法</t>
   </si>
   <si>
     <t>吸</t>
   </si>
   <si>
+    <t>可吸敌人内力化为己用</t>
+  </si>
+  <si>
     <t>神木王鼎</t>
   </si>
   <si>
     <t>神木王鼎</t>
   </si>
   <si>
+    <t>星宿海掌门练化功大法之物</t>
+  </si>
+  <si>
+    <t>六脉神剑谱</t>
+  </si>
+  <si>
+    <t>六脉神剑</t>
+  </si>
+  <si>
+    <t>大理段家之超强剑气绝学</t>
+  </si>
+  <si>
+    <t>松风剑谱</t>
+  </si>
+  <si>
     <t>松</t>
   </si>
   <si>
+    <t>四川青城之剑法</t>
+  </si>
+  <si>
+    <t>泰山十八盘</t>
+  </si>
+  <si>
     <t>泰山</t>
   </si>
   <si>
+    <t>泰山派高深之剑法</t>
+  </si>
+  <si>
+    <t>回峰落雁剑法</t>
+  </si>
+  <si>
+    <t>衡山派千变万化之剑法</t>
+  </si>
+  <si>
+    <t>七星剑谱</t>
+  </si>
+  <si>
+    <t>王重阳悟于北斗七星之剑法</t>
+  </si>
+  <si>
+    <t>两仪剑法</t>
+  </si>
+  <si>
+    <t>两仪剑</t>
+  </si>
+  <si>
+    <t>昆仑派之独门绝学</t>
+  </si>
+  <si>
+    <t>金蛇秘籍</t>
+  </si>
+  <si>
     <t>金蛇</t>
   </si>
   <si>
+    <t>金蛇郎君观蛇时悟出之剑法</t>
+  </si>
+  <si>
+    <t>玉女素心剑法</t>
+  </si>
+  <si>
     <t>玉女</t>
   </si>
   <si>
+    <t>古墓派轻巧之剑法</t>
+  </si>
+  <si>
+    <t>苗家剑法</t>
+  </si>
+  <si>
     <t>苗</t>
   </si>
   <si>
+    <t>苗人凤家传剑法</t>
+  </si>
+  <si>
+    <t>太极剑法</t>
+  </si>
+  <si>
+    <t>太极剑</t>
+  </si>
+  <si>
+    <t>张三丰新创之剑法</t>
+  </si>
+  <si>
+    <t>达摩剑谱</t>
+  </si>
+  <si>
+    <t>达</t>
+  </si>
+  <si>
+    <t>少林七十二绝技之一</t>
+  </si>
+  <si>
+    <t>玄铁剑法</t>
+  </si>
+  <si>
+    <t>玄铁</t>
+  </si>
+  <si>
+    <t>杨过悟于剑魔所留之秘籍</t>
+  </si>
+  <si>
+    <t>辟邪剑谱</t>
+  </si>
+  <si>
     <t>辟</t>
   </si>
   <si>
+    <t>剑法阴损毒辣，修习者断子绝孙</t>
+  </si>
+  <si>
+    <t>独孤九剑</t>
+  </si>
+  <si>
+    <t>独</t>
+  </si>
+  <si>
+    <t>独孤求败所创之高深剑法</t>
+  </si>
+  <si>
+    <t>血刀经</t>
+  </si>
+  <si>
     <t>血刀</t>
   </si>
   <si>
+    <t>可修练血刀刀法</t>
+  </si>
+  <si>
+    <t>火焰刀法</t>
+  </si>
+  <si>
+    <t>火焰</t>
+  </si>
+  <si>
+    <t>西域大轮寺刀法绝学</t>
+  </si>
+  <si>
+    <t>反两仪刀法</t>
+  </si>
+  <si>
+    <t>反两仪刀</t>
+  </si>
+  <si>
+    <t>华山派武学刀法</t>
+  </si>
+  <si>
+    <t>狂风刀法</t>
+  </si>
+  <si>
     <t>狂</t>
   </si>
   <si>
+    <t>速度极快之刀法</t>
+  </si>
+  <si>
     <t>胡家刀法</t>
   </si>
   <si>
+    <t>胡一刀家传之刀谱</t>
+  </si>
+  <si>
+    <t>霹雳刀法</t>
+  </si>
+  <si>
     <t>霹</t>
   </si>
   <si>
+    <t>霹雳三绝中之刀谱</t>
+  </si>
+  <si>
+    <t>毒龙鞭法</t>
+  </si>
+  <si>
+    <t>轻盈灵巧，千变万化之鞭法</t>
+  </si>
+  <si>
+    <t>黄沙万里鞭法</t>
+  </si>
+  <si>
+    <t>黄沙</t>
+  </si>
+  <si>
+    <t>相传至西域之鞭法</t>
+  </si>
+  <si>
+    <t>满天花雨</t>
+  </si>
+  <si>
+    <t>满天花雨</t>
+  </si>
+  <si>
     <t>增加暗器能力</t>
   </si>
   <si>
+    <t>霹雳秘籍</t>
+  </si>
+  <si>
+    <t>霹雳三绝中之暗器总诀</t>
+  </si>
+  <si>
     <t>含沙射影</t>
   </si>
   <si>
     <t>含</t>
   </si>
   <si>
+    <t>五毒教之暗器总诀</t>
+  </si>
+  <si>
+    <t>左右互搏之术</t>
+  </si>
+  <si>
     <t>左右</t>
   </si>
   <si>
+    <t>修习后可攻击两次</t>
+  </si>
+  <si>
     <t>乾坤大挪移</t>
   </si>
   <si>
+    <t>干坤</t>
+  </si>
+  <si>
+    <t>明教宝典，修行后可增加防御力</t>
+  </si>
+  <si>
+    <t>葵花宝典</t>
+  </si>
+  <si>
+    <t>葵花宝</t>
+  </si>
+  <si>
+    <t>道家修行内功之无上心法</t>
+  </si>
+  <si>
+    <t>九阴真经</t>
+  </si>
+  <si>
+    <t>至高无上之武功宝典</t>
+  </si>
+  <si>
+    <t>九阳真经</t>
+  </si>
+  <si>
+    <t>飞蝗石</t>
+  </si>
+  <si>
+    <t>飞蝗石</t>
+  </si>
+  <si>
     <t>普通暗器</t>
   </si>
   <si>
+    <t>金钱镖</t>
+  </si>
+  <si>
+    <t>金钱镖</t>
+  </si>
+  <si>
+    <t>飞刀</t>
+  </si>
+  <si>
+    <t>飞刀</t>
+  </si>
+  <si>
     <t>菩提子</t>
   </si>
   <si>
     <t>菩提子</t>
   </si>
   <si>
+    <t>金蛇锥</t>
+  </si>
+  <si>
+    <t>金蛇郎君之独门暗器</t>
+  </si>
+  <si>
+    <t>霹雳弹</t>
+  </si>
+  <si>
+    <t>霹雳三绝中之火爆暗器</t>
+  </si>
+  <si>
     <t>毒蒺黎</t>
   </si>
   <si>
     <t>含毒之暗器</t>
   </si>
   <si>
+    <t>玉蜂针</t>
+  </si>
+  <si>
+    <t>玉蜂针</t>
+  </si>
+  <si>
     <t>古墓派暗器，含蜂毒</t>
   </si>
   <si>
+    <t>冰魄银针</t>
+  </si>
+  <si>
     <t>冰</t>
   </si>
   <si>
+    <t>古墓派暗器，含剧毒</t>
+  </si>
+  <si>
+    <t>黑血神针</t>
+  </si>
+  <si>
+    <t>黑血神针</t>
+  </si>
+  <si>
     <t>日月神教所有，含毒之暗器</t>
   </si>
   <si>
+    <t>玄铁剑</t>
+  </si>
+  <si>
+    <t>玄铁铸成之重剑</t>
+  </si>
+  <si>
+    <t>君子剑</t>
+  </si>
+  <si>
     <t>君</t>
   </si>
   <si>
+    <t>剑客适用，适轻盈剑法</t>
+  </si>
+  <si>
+    <t>淑女剑</t>
+  </si>
+  <si>
     <t>淑</t>
   </si>
   <si>
+    <t>倚天剑</t>
+  </si>
+  <si>
+    <t>倚天剑</t>
+  </si>
+  <si>
+    <t>玄铁铸成之剑，武林奇宝</t>
+  </si>
+  <si>
+    <t>金蛇剑</t>
+  </si>
+  <si>
+    <t>金蛇郎君之随身武器</t>
+  </si>
+  <si>
+    <t>凝碧剑</t>
+  </si>
+  <si>
+    <t>凝碧剑</t>
+  </si>
+  <si>
+    <t>剑客适用</t>
+  </si>
+  <si>
+    <t>白龙剑</t>
+  </si>
+  <si>
+    <t>白龙</t>
+  </si>
+  <si>
+    <t>白虹剑</t>
+  </si>
+  <si>
     <t>白虹</t>
   </si>
   <si>
+    <t>周公剑</t>
+  </si>
+  <si>
     <t>周</t>
   </si>
   <si>
     <t>血刀</t>
   </si>
   <si>
+    <t>刀客适用，配合血刀刀法尤佳</t>
+  </si>
+  <si>
+    <t>冷月宝刀</t>
+  </si>
+  <si>
     <t>冷</t>
   </si>
   <si>
+    <t>刀客适用</t>
+  </si>
+  <si>
+    <t>屠龙刀</t>
+  </si>
+  <si>
     <t>屠</t>
   </si>
   <si>
+    <t>武林至尊，宝刀屠龙</t>
+  </si>
+  <si>
+    <t>绿波香露刀</t>
+  </si>
+  <si>
+    <t>绿波</t>
+  </si>
+  <si>
+    <t>霹雳狂刀</t>
+  </si>
+  <si>
+    <t>传说中人物之神秘宝刀</t>
+  </si>
+  <si>
+    <t>软猬甲</t>
+  </si>
+  <si>
+    <t>软</t>
+  </si>
+  <si>
+    <t>生满倒刺，可增加攻防力</t>
+  </si>
+  <si>
+    <t>金丝背心</t>
+  </si>
+  <si>
+    <t>金丝背</t>
+  </si>
+  <si>
+    <t>可增加防御力</t>
+  </si>
+  <si>
+    <t>乌蚕衣</t>
+  </si>
+  <si>
+    <t>乌</t>
+  </si>
+  <si>
+    <t>鳄皮护甲</t>
+  </si>
+  <si>
+    <t>鳄</t>
+  </si>
+  <si>
+    <t>鳄鱼皮所制，可增加防御力</t>
+  </si>
+  <si>
+    <t>玉蜂浆</t>
+  </si>
+  <si>
+    <t>玉蜂浆</t>
+  </si>
+  <si>
+    <t>养蜂者的最爱，可吸引蜂群</t>
+  </si>
+  <si>
     <t>黑木令牌</t>
   </si>
   <si>
@@ -484,15 +1264,87 @@
     <t>翡</t>
   </si>
   <si>
+    <t>梨花酒若配合此杯饮用风味更佳</t>
+  </si>
+  <si>
+    <t>七宝指环</t>
+  </si>
+  <si>
+    <t>逍遥派掌门之信物</t>
+  </si>
+  <si>
+    <t>神仙美女图</t>
+  </si>
+  <si>
     <t>神仙</t>
   </si>
   <si>
+    <t>女子画像</t>
+  </si>
+  <si>
+    <t>大燕传国玉玺</t>
+  </si>
+  <si>
+    <t>大燕王朝传国之玉玺</t>
+  </si>
+  <si>
+    <t>大燕皇帝世系图表</t>
+  </si>
+  <si>
+    <t>大燕王朝历代皇帝姓名图表</t>
+  </si>
+  <si>
+    <t>赏善罚恶令</t>
+  </si>
+  <si>
+    <t>赏善罚</t>
+  </si>
+  <si>
+    <t>受邀进入侠客岛之信物</t>
+  </si>
+  <si>
+    <t>两页刀法</t>
+  </si>
+  <si>
+    <t>两页刀</t>
+  </si>
+  <si>
+    <t>疑似某刀谱之缺页</t>
+  </si>
+  <si>
+    <t>断肠草</t>
+  </si>
+  <si>
+    <t>断</t>
+  </si>
+  <si>
+    <t>生于情花旁之植物</t>
+  </si>
+  <si>
+    <t>闯王军刀</t>
+  </si>
+  <si>
+    <t>闯王军</t>
+  </si>
+  <si>
+    <t>闯王当年之随身武器</t>
+  </si>
+  <si>
     <t>玄冰碧火酒</t>
   </si>
   <si>
     <t>玄冰</t>
   </si>
   <si>
+    <t>可调和阴阳之毒</t>
+  </si>
+  <si>
+    <t>苗人凤眼毒解药</t>
+  </si>
+  <si>
+    <t>可医治断肠草粉末所制之毒</t>
+  </si>
+  <si>
     <t>羊羔坐臀</t>
   </si>
   <si>
@@ -505,6 +1357,9 @@
     <t>小牛腰子</t>
   </si>
   <si>
+    <t>小猪耳朵</t>
+  </si>
+  <si>
     <t>獐腿肉</t>
   </si>
   <si>
@@ -526,1708 +1381,443 @@
     <t>武林盟主之信物</t>
   </si>
   <si>
+    <t>飞狐外传</t>
+  </si>
+  <si>
+    <t>飞狐外</t>
+  </si>
+  <si>
+    <t>一本小说</t>
+  </si>
+  <si>
+    <t>雪山飞狐</t>
+  </si>
+  <si>
     <t>雪山</t>
   </si>
   <si>
+    <t>连城诀</t>
+  </si>
+  <si>
+    <t>连</t>
+  </si>
+  <si>
+    <t>天龙八部</t>
+  </si>
+  <si>
+    <t>天龙</t>
+  </si>
+  <si>
+    <t>射鵰英雄传</t>
+  </si>
+  <si>
     <t>射</t>
   </si>
   <si>
+    <t>白马啸西风</t>
+  </si>
+  <si>
+    <t>白马啸</t>
+  </si>
+  <si>
+    <t>鹿鼎记</t>
+  </si>
+  <si>
+    <t>鹿鼎记</t>
+  </si>
+  <si>
     <t>笑傲江湖</t>
   </si>
   <si>
     <t>笑傲江湖</t>
   </si>
   <si>
+    <t>书剑恩仇录</t>
+  </si>
+  <si>
+    <t>书剑</t>
+  </si>
+  <si>
+    <t>神鵰侠侣</t>
+  </si>
+  <si>
+    <t>神鵰侠</t>
+  </si>
+  <si>
+    <t>侠客行</t>
+  </si>
+  <si>
+    <t>侠</t>
+  </si>
+  <si>
+    <t>倚天屠龙记</t>
+  </si>
+  <si>
     <t>倚天屠</t>
   </si>
   <si>
+    <t>碧血剑</t>
+  </si>
+  <si>
+    <t>碧血剑</t>
+  </si>
+  <si>
+    <t>鸳鸯刀</t>
+  </si>
+  <si>
+    <t>鸳</t>
+  </si>
+  <si>
     <t>七心海棠</t>
   </si>
   <si>
+    <t>此物炼制后奇毒无比，天下之最</t>
+  </si>
+  <si>
+    <t>可兰经</t>
+  </si>
+  <si>
     <t>可</t>
   </si>
   <si>
+    <t>回教圣书</t>
+  </si>
+  <si>
+    <t>唐诗选辑</t>
+  </si>
+  <si>
+    <t>唐诗选辑</t>
+  </si>
+  <si>
+    <t>普通百姓都懂的唐诗三百首</t>
+  </si>
+  <si>
+    <t>红钥匙</t>
+  </si>
+  <si>
+    <t>红钥</t>
+  </si>
+  <si>
+    <t>梅庄二庄主黑白子给的钥匙</t>
+  </si>
+  <si>
+    <t>橙钥匙</t>
+  </si>
+  <si>
+    <t>橙钥</t>
+  </si>
+  <si>
+    <t>大轮寺番僧身上带的钥匙</t>
+  </si>
+  <si>
+    <t>黄钥匙</t>
+  </si>
+  <si>
+    <t>黄钥</t>
+  </si>
+  <si>
+    <t>孔八拉送的钥匙</t>
+  </si>
+  <si>
+    <t>绿钥匙</t>
+  </si>
+  <si>
+    <t>绿钥</t>
+  </si>
+  <si>
+    <t>孔八拉给的神秘钥匙</t>
+  </si>
+  <si>
+    <t>蓝钥匙</t>
+  </si>
+  <si>
+    <t>蓝钥</t>
+  </si>
+  <si>
+    <t>华山派获得之钥匙</t>
+  </si>
+  <si>
+    <t>紫钥匙</t>
+  </si>
+  <si>
+    <t>紫钥</t>
+  </si>
+  <si>
+    <t>慕容复给的钥匙</t>
+  </si>
+  <si>
+    <t>铁钥匙</t>
+  </si>
+  <si>
+    <t>神秘钥匙</t>
+  </si>
+  <si>
+    <t>铜钥匙</t>
+  </si>
+  <si>
+    <t>铜钥</t>
+  </si>
+  <si>
+    <t>银钥匙</t>
+  </si>
+  <si>
+    <t>银钥</t>
+  </si>
+  <si>
+    <t>金钥匙</t>
+  </si>
+  <si>
+    <t>金钥</t>
+  </si>
+  <si>
+    <t>药材</t>
+  </si>
+  <si>
+    <t>药材</t>
+  </si>
+  <si>
+    <t>各式中药材，制作丹药所需</t>
+  </si>
+  <si>
     <t>硝石</t>
   </si>
   <si>
     <t>硝</t>
   </si>
   <si>
+    <t>可做成火药，制成霹雳弹所需</t>
+  </si>
+  <si>
+    <t>一朵蓝花</t>
+  </si>
+  <si>
     <t>一</t>
   </si>
   <si>
+    <t>形状奇特之蓝色花朵，幽香淡淡</t>
+  </si>
+  <si>
+    <t>银两</t>
+  </si>
+  <si>
+    <t>银两</t>
+  </si>
+  <si>
+    <t>很好用的东西，甚至能使鬼推磨</t>
+  </si>
+  <si>
+    <t>闯王藏宝图</t>
+  </si>
+  <si>
+    <t>闯王藏宝</t>
+  </si>
+  <si>
+    <t>乌笔峰下，坐标（６４，５１）</t>
+  </si>
+  <si>
+    <t>玉笛谁家听落梅</t>
+  </si>
+  <si>
+    <t>玉笛谁家</t>
+  </si>
+  <si>
+    <t>一道佳肴</t>
+  </si>
+  <si>
+    <t>广陵散琴曲</t>
+  </si>
+  <si>
+    <t>广</t>
+  </si>
+  <si>
+    <t>失传之嵇康名曲</t>
+  </si>
+  <si>
+    <t>刘仲甫呕血棋谱</t>
+  </si>
+  <si>
+    <t>刘</t>
+  </si>
+  <si>
+    <t>刘仲甫输给乡下老媪之棋谱</t>
+  </si>
+  <si>
+    <t>张旭率意帖</t>
+  </si>
+  <si>
+    <t>张</t>
+  </si>
+  <si>
+    <t>唐朝书法名家张旭的真迹</t>
+  </si>
+  <si>
+    <t>溪山行旅图</t>
+  </si>
+  <si>
+    <t>溪山</t>
+  </si>
+  <si>
+    <t>北宋范中立之精心杰作</t>
+  </si>
+  <si>
     <t>一撮金毛</t>
   </si>
   <si>
+    <t>金毛狮王谢逊之毛发</t>
+  </si>
+  <si>
+    <t>罗盘</t>
+  </si>
+  <si>
+    <t>罗盘</t>
+  </si>
+  <si>
+    <t>可显示目前之坐标与船之位置</t>
+  </si>
+  <si>
+    <t>带头大哥书信</t>
+  </si>
+  <si>
+    <t>带</t>
+  </si>
+  <si>
+    <t>武林密函，内容关系重大</t>
+  </si>
+  <si>
     <t>手帕</t>
   </si>
   <si>
     <t>手帕</t>
   </si>
   <si>
+    <t>织有鸳鸯的手帕</t>
+  </si>
+  <si>
+    <t>林震南遗言</t>
+  </si>
+  <si>
     <t>林</t>
   </si>
   <si>
+    <t>福威镳局林震南死前留下之书信</t>
+  </si>
+  <si>
     <t>智慧果</t>
   </si>
   <si>
     <t>智慧</t>
   </si>
   <si>
+    <t>相传使用后可增加智能</t>
+  </si>
+  <si>
+    <t>鸳刀</t>
+  </si>
+  <si>
+    <t>相传藏有无敌于天下的秘密</t>
+  </si>
+  <si>
+    <t>鸯刀</t>
+  </si>
+  <si>
+    <t>鸯</t>
+  </si>
+  <si>
     <t>武林帖</t>
   </si>
   <si>
     <t>武</t>
   </si>
   <si>
+    <t>请持此函前往华山参加武林大会</t>
+  </si>
+  <si>
+    <t>明教铁焰令</t>
+  </si>
+  <si>
+    <t>明教铁</t>
+  </si>
+  <si>
+    <t>明教高层人事间的信物</t>
+  </si>
+  <si>
+    <t>一颗头颅</t>
+  </si>
+  <si>
+    <t>成昆的项上人头</t>
+  </si>
+  <si>
+    <t>真武剑</t>
+  </si>
+  <si>
     <t>真</t>
   </si>
   <si>
+    <t>武当派镇教宝剑</t>
+  </si>
+  <si>
+    <t>金盆洗手请帖</t>
+  </si>
+  <si>
     <t>金盆洗</t>
   </si>
   <si>
+    <t>受邀到衡山派观礼之请帖</t>
+  </si>
+  <si>
+    <t>烧刀子</t>
+  </si>
+  <si>
+    <t>烧</t>
+  </si>
+  <si>
     <t>辛辣之酒</t>
   </si>
   <si>
+    <t>铁铲</t>
+  </si>
+  <si>
+    <t>可用来挖掘东西</t>
+  </si>
+  <si>
+    <t>槟榔</t>
+  </si>
+  <si>
+    <t>槟</t>
+  </si>
+  <si>
+    <t>提神醒脑，可提升体力</t>
+  </si>
+  <si>
     <t>皮衣</t>
   </si>
   <si>
     <t>皮衣</t>
   </si>
   <si>
-    <t>活性饮料，迅速补充你的体力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>精气丸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>精气丸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中药提炼，可恢复些许体力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>白岚氏鸡精</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>白岚</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命虚弱时赶紧饮用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小还丹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>疗伤药丸，可恢复少许生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>崆峒派所有，可恢复些许生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山派所有，可恢复些许生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>三黄宝腊丹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当派所有，可恢复些许生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉灵散</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉灵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林寺之伤科圣药，可恢复生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>天香断续胶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>天香断</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒山派所有，能恢复许多生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑玉断续膏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑玉断</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>疗伤圣药，可补满生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金牛运功散</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金牛运</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>内伤别怕，用后可将人轻易举起</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>天然补品，可恢复少许内力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云熊胆丸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云熊胆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒山派所有，可恢复些许内力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃花岛所有，可恢复内力及解毒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>九转灵宝丸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>全真教所有，可恢复内力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>田七鲨胆散</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃花岛所制，可恢复许多内力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>九转熊蛇丸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>逍遥派疗伤圣药，可补满内力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无常丹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃花岛所有，可恢复生命及内力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>镇心理气丸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>镇心理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>名家配制，迅速恢复内力及生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>疗伤圣药，有起死回生之神效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>神奇丹药，有起死回生之神效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝济丸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>肚内疼痛，疑似中毒请用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄连解毒丸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄连</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>民间常见之解毒丸，由黄连所制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当派所制之解毒丸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>回阳五龙膏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛黄血竭丹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛黄血竭丹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡青牛秘方之解毒灵药</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>六阳正气丹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>六阳正气丹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林寺所有，可医治奇毒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>产于雪山，可反复吸取剧毒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>伏苓首乌丸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>千年奇药，可提高生命最大值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>千年灵芝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>珍贵补品，可提高生命最大值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇胆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒蛇之胆，可提高内力最大值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>五宝花蜜酒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>五宝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>五毒调制而成，提高内力最大值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>腊八粥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>腊八</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>珍奇花草制成，提高内力最大值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>珍贵异果，可提高内力最大值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>千年物，提高生命及内力最大值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>天山雪莲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>珍贵物，提高生命及内力最大值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>通犀地龙丸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>西域异兽所制，服食后百毒不侵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>千年冰蚕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒性极高，可使练毒者功力大增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>万毒之王，服食之后百毒不侵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫霞秘籍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山派修行内功之心法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小无相功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>逍遥派之内功心法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>记载少林罗汉伏魔神功泥偶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>神照经</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>神照经</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>修习内功之奥妙法门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>易筋经</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>易筋经</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林寺修行内功之无上心法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗髓经</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>失传之内功宝典</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>梯云纵心法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>梯云纵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当派修行轻功之心法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>神行百变</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>神行百变</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加轻功能力的武功秘籍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>逍遥派绝学，可增强轻功能力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>子午针灸经</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>探讨穴道，经脉之医书</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华陀内昭图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华陀内昭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>医学宝典</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡青牛医书</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝶谷医仙医术精华之记录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>五毒秘传</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>五毒教秘籍，记载用毒解毒方法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒经</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒仙王难姑所著之用毒宝典</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>药王神篇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>药王神篇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒手药王之毕生心血著作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁掌拳谱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁掌帮之扬名绝学</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>七伤拳谱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>崆峒派之独门拳法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>天山六阳掌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>逍遥派之掌法秘籍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>失传已久的武林绝学</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>太极拳经</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>太极拳经</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当派之新创绝学，四两拨千斤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙象般若功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>密宗至高无上之护法神功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>太玄经</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>太玄经</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无人可解之神秘武功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黯然销魂掌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨过所创之强力掌法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>降龙十八掌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>降龙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮镇帮之宝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>逍遥派绝学，吸人内力化为己用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可吸敌人内力化为己用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>星宿海掌门练化功大法之物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>六脉神剑谱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>六脉神剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大理段家之超强剑气绝学</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>松风剑谱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川青城之剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰山十八盘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰山派高深之剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>回峰落雁剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>回</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>衡山派千变万化之剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>七星剑谱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>王重阳悟于北斗七星之剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>两仪剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>两仪剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆仑派之独门绝学</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金蛇秘籍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金蛇郎君观蛇时悟出之剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉女素心剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>古墓派轻巧之剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗家剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗人凤家传剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>太极剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>太极剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三丰新创之剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>达摩剑谱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>达</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林七十二绝技之一</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄铁剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄铁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨过悟于剑魔所留之秘籍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>辟邪剑谱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑法阴损毒辣，修习者断子绝孙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>独孤九剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>独</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>独孤求败所创之高深剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>血刀经</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可修练血刀刀法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰刀法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>西域大轮寺刀法绝学</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>反两仪刀法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>反两仪刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山派武学刀法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂风刀法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度极快之刀法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡一刀家传之刀谱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>霹雳刀法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>霹雳三绝中之刀谱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙鞭法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻盈灵巧，千变万化之鞭法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄沙万里鞭法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄沙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>相传至西域之鞭法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>满天花雨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>满天花雨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>霹雳秘籍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>霹雳三绝中之暗器总诀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>五毒教之暗器总诀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>左右互搏之术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>修习后可攻击两次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>干坤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>明教宝典，修行后可增加防御力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>葵花宝典</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>葵花宝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>道家修行内功之无上心法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>九阴真经</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>至高无上之武功宝典</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>九阳真经</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞蝗石</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞蝗石</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱镖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱镖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金蛇锥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金蛇郎君之独门暗器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>霹雳弹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>霹雳三绝中之火爆暗器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉蜂针</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉蜂针</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰魄银针</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>古墓派暗器，含剧毒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑血神针</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑血神针</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄铁剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄铁铸成之重剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>君子剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑客适用，适轻盈剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>淑女剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>倚天剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>倚天剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄铁铸成之剑，武林奇宝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金蛇剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金蛇郎君之随身武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>凝碧剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>凝碧剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑客适用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>白龙剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>白龙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>白虹剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>周公剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀客适用，配合血刀刀法尤佳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷月宝刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀客适用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>屠龙刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>武林至尊，宝刀屠龙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿波香露刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿波</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>霹雳狂刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说中人物之神秘宝刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>软猬甲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>软</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>生满倒刺，可增加攻防力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金丝背心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金丝背</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可增加防御力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌蚕衣</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳄皮护甲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳄鱼皮所制，可增加防御力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉蜂浆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉蜂浆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>养蜂者的最爱，可吸引蜂群</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>梨花酒若配合此杯饮用风味更佳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>七宝指环</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>逍遥派掌门之信物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>神仙美女图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>女子画像</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大燕传国玉玺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大燕王朝传国之玉玺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大燕皇帝世系图表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大燕王朝历代皇帝姓名图表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>赏善罚恶令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>赏善罚</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>受邀进入侠客岛之信物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>两页刀法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>两页刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>疑似某刀谱之缺页</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>断肠草</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>断</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>生于情花旁之植物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯王军刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯王军</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯王当年之随身武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可调和阴阳之毒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗人凤眼毒解药</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可医治断肠草粉末所制之毒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小猪耳朵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞狐外传</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞狐外</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一本小说</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪山飞狐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>连城诀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>连</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>天龙八部</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>天龙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>射鵰英雄传</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>白马啸西风</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>白马啸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹿鼎记</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹿鼎记</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>书剑恩仇录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>书剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>神鵰侠侣</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>神鵰侠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>侠客行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>侠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>倚天屠龙记</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>碧血剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>碧血剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸳鸯刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>此物炼制后奇毒无比，天下之最</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可兰经</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>回教圣书</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐诗选辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐诗选辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通百姓都懂的唐诗三百首</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>红钥匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>红钥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅庄二庄主黑白子给的钥匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙钥匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙钥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大轮寺番僧身上带的钥匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄钥匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄钥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔八拉送的钥匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿钥匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿钥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔八拉给的神秘钥匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝钥匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝钥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华山派获得之钥匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫钥匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫钥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>慕容复给的钥匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁钥匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘钥匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜钥匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜钥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>银钥匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>银钥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钥匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>药材</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>药材</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>各式中药材，制作丹药所需</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可做成火药，制成霹雳弹所需</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一朵蓝花</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>形状奇特之蓝色花朵，幽香淡淡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>银两</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>银两</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>很好用的东西，甚至能使鬼推磨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯王藏宝图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯王藏宝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌笔峰下，坐标（６４，５１）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉笛谁家听落梅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉笛谁家</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一道佳肴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>广陵散琴曲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>广</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>失传之嵇康名曲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘仲甫呕血棋谱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘仲甫输给乡下老媪之棋谱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>张旭率意帖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>张</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐朝书法名家张旭的真迹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>溪山行旅图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>溪山</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>北宋范中立之精心杰作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金毛狮王谢逊之毛发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗盘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗盘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可显示目前之坐标与船之位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>带头大哥书信</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>带</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>武林密函，内容关系重大</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>织有鸳鸯的手帕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>林震南遗言</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福威镳局林震南死前留下之书信</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>相传使用后可增加智能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸳刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>相传藏有无敌于天下的秘密</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸯刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>请持此函前往华山参加武林大会</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>明教铁焰令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>明教铁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>明教高层人事间的信物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一颗头颅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>成昆的项上人头</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>真武剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>武当派镇教宝剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金盆洗手请帖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>受邀到衡山派观礼之请帖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧刀子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁铲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用来挖掘东西</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>槟榔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>槟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提神醒脑，可提升体力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>”兄弟”常穿服饰，因防御力强</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>无用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>最后</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>最后</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2238,6 +1828,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2247,26 +1838,351 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2274,21 +2190,263 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2299,21 +2457,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2642,21 +2844,23 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BK201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="U65" sqref="U65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2847,7 +3051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2858,7 +3062,7 @@
         <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1">
         <v>-1</v>
@@ -3038,18 +3242,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1">
         <v>-1</v>
@@ -3229,18 +3433,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1">
         <v>-1</v>
@@ -3420,18 +3624,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1">
         <v>-1</v>
@@ -3611,18 +3815,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1">
         <v>-1</v>
@@ -3802,18 +4006,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1">
         <v>-1</v>
@@ -3993,18 +4197,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1">
         <v>-1</v>
@@ -4184,18 +4388,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1">
         <v>-1</v>
@@ -4375,18 +4579,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1">
         <v>-1</v>
@@ -4566,18 +4770,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1">
         <v>-1</v>
@@ -4757,18 +4961,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="E12" s="1">
         <v>-1</v>
@@ -4948,18 +5152,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="E13" s="1">
         <v>-1</v>
@@ -5139,18 +5343,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="E14" s="1">
         <v>-1</v>
@@ -5330,18 +5534,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="E15" s="1">
         <v>-1</v>
@@ -5521,18 +5725,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c r="E16" s="1">
         <v>-1</v>
@@ -5712,18 +5916,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="E17" s="1">
         <v>-1</v>
@@ -5903,18 +6107,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="E18" s="1">
         <v>-1</v>
@@ -6094,18 +6298,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="E19" s="1">
         <v>-1</v>
@@ -6285,18 +6489,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>232</v>
+        <v>117</v>
       </c>
       <c r="E20" s="1">
         <v>-1</v>
@@ -6476,18 +6680,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>233</v>
+        <v>120</v>
       </c>
       <c r="E21" s="1">
         <v>-1</v>
@@ -6667,18 +6871,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="E22" s="1">
         <v>-1</v>
@@ -6858,18 +7062,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="E23" s="1">
         <v>-1</v>
@@ -7049,18 +7253,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="E24" s="1">
         <v>-1</v>
@@ -7240,18 +7444,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="E25" s="1">
         <v>-1</v>
@@ -7431,18 +7635,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="E26" s="1">
         <v>-1</v>
@@ -7622,18 +7826,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
       <c r="E27" s="1">
         <v>-1</v>
@@ -7813,18 +8017,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>247</v>
+        <v>140</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c r="E28" s="1">
         <v>-1</v>
@@ -8004,18 +8208,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>249</v>
+        <v>144</v>
       </c>
       <c r="E29" s="1">
         <v>-1</v>
@@ -8195,18 +8399,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>251</v>
+        <v>147</v>
       </c>
       <c r="E30" s="1">
         <v>-1</v>
@@ -8386,18 +8590,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="E31" s="1">
         <v>-1</v>
@@ -8577,18 +8781,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:63">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="E32" s="1">
         <v>-1</v>
@@ -8768,18 +8972,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>258</v>
+        <v>156</v>
       </c>
       <c r="E33" s="1">
         <v>-1</v>
@@ -8959,18 +9163,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>260</v>
+        <v>158</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="E34" s="1">
         <v>-1</v>
@@ -9150,18 +9354,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="E35" s="1">
         <v>-1</v>
@@ -9341,18 +9545,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="E36" s="1">
         <v>-1</v>
@@ -9532,18 +9736,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:63">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c r="E37" s="1">
         <v>-1</v>
@@ -9723,18 +9927,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>267</v>
+        <v>170</v>
       </c>
       <c r="E38" s="1">
         <v>-1</v>
@@ -9914,18 +10118,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="E39" s="1">
         <v>-1</v>
@@ -10105,18 +10309,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:63">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>270</v>
+        <v>175</v>
       </c>
       <c r="E40" s="1">
         <v>-1</v>
@@ -10296,18 +10500,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:63">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>271</v>
+        <v>176</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="E41" s="1">
         <v>-1</v>
@@ -10487,18 +10691,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:63">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="E42" s="1">
         <v>-1</v>
@@ -10678,18 +10882,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:63">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="E43" s="1">
         <v>-1</v>
@@ -10869,18 +11073,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:63">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="E44" s="1">
         <v>-1</v>
@@ -11060,18 +11264,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:63">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="E45" s="1">
         <v>-1</v>
@@ -11251,18 +11455,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:63">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="E46" s="1">
         <v>-1</v>
@@ -11442,18 +11646,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:63">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>284</v>
+        <v>193</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>285</v>
+        <v>194</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="E47" s="1">
         <v>-1</v>
@@ -11633,18 +11837,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:63">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>287</v>
+        <v>196</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>288</v>
+        <v>197</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>289</v>
+        <v>198</v>
       </c>
       <c r="E48" s="1">
         <v>-1</v>
@@ -11824,18 +12028,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:63">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
       <c r="E49" s="1">
         <v>-1</v>
@@ -12015,18 +12219,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:63">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>291</v>
+        <v>202</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="E50" s="1">
         <v>-1</v>
@@ -12206,18 +12410,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:63">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="E51" s="1">
         <v>-1</v>
@@ -12397,18 +12601,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:63">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>297</v>
+        <v>210</v>
       </c>
       <c r="E52" s="1">
         <v>-1</v>
@@ -12588,18 +12792,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:63">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="E53" s="1">
         <v>-1</v>
@@ -12779,18 +12983,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:63">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="E54" s="1">
         <v>-1</v>
@@ -12970,18 +13174,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:63">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="E55" s="1">
         <v>-1</v>
@@ -13161,18 +13365,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:63">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="E56" s="1">
         <v>11</v>
@@ -13352,18 +13556,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:63">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="E57" s="1">
         <v>6</v>
@@ -13543,18 +13747,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:63">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>311</v>
+        <v>227</v>
       </c>
       <c r="E58" s="1">
         <v>15</v>
@@ -13734,18 +13938,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:63">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c r="E59" s="1">
         <v>16</v>
@@ -13925,18 +14129,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:63">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>313</v>
+        <v>231</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>315</v>
+        <v>233</v>
       </c>
       <c r="E60" s="1">
         <v>20</v>
@@ -14116,18 +14320,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:63">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>317</v>
+        <v>235</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="E61" s="1">
         <v>18</v>
@@ -14307,18 +14511,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:63">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>319</v>
+        <v>237</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>321</v>
+        <v>239</v>
       </c>
       <c r="E62" s="1">
         <v>23</v>
@@ -14498,18 +14702,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:63">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>322</v>
+        <v>240</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>109</v>
+        <v>241</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="E63" s="1">
         <v>24</v>
@@ -14689,18 +14893,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:63">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>324</v>
+        <v>243</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>325</v>
+        <v>244</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="E64" s="1">
         <v>25</v>
@@ -14880,18 +15084,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:63">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>327</v>
+        <v>248</v>
       </c>
       <c r="E65" s="1">
         <v>29</v>
@@ -15071,18 +15275,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:63">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>328</v>
+        <v>251</v>
       </c>
       <c r="E66" s="1">
         <v>28</v>
@@ -15262,18 +15466,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:63">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>115</v>
+        <v>253</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>329</v>
+        <v>254</v>
       </c>
       <c r="E67" s="1">
         <v>27</v>
@@ -15453,18 +15657,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:63">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>330</v>
+        <v>255</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>331</v>
+        <v>256</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>332</v>
+        <v>257</v>
       </c>
       <c r="E68" s="1">
         <v>30</v>
@@ -15644,18 +15848,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:63">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>116</v>
+        <v>259</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="E69" s="1">
         <v>89</v>
@@ -15835,18 +16039,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:63">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
       <c r="E70" s="1">
         <v>45</v>
@@ -16026,18 +16230,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:63">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>338</v>
+        <v>134</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>339</v>
+        <v>265</v>
       </c>
       <c r="E71" s="1">
         <v>46</v>
@@ -16217,18 +16421,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:63">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>340</v>
+        <v>266</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="E72" s="1">
         <v>53</v>
@@ -16408,18 +16612,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:63">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>342</v>
+        <v>268</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>343</v>
+        <v>269</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>344</v>
+        <v>270</v>
       </c>
       <c r="E73" s="1">
         <v>47</v>
@@ -16599,18 +16803,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:63">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>345</v>
+        <v>271</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>118</v>
+        <v>272</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>346</v>
+        <v>273</v>
       </c>
       <c r="E74" s="1">
         <v>54</v>
@@ -16790,18 +16994,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:63">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>347</v>
+        <v>274</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>119</v>
+        <v>275</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="E75" s="1">
         <v>49</v>
@@ -16981,18 +17185,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:63">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>349</v>
+        <v>277</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="E76" s="1">
         <v>55</v>
@@ -17172,18 +17376,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:63">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>351</v>
+        <v>280</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>352</v>
+        <v>281</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>353</v>
+        <v>282</v>
       </c>
       <c r="E77" s="1">
         <v>58</v>
@@ -17363,18 +17567,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:63">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>354</v>
+        <v>283</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>355</v>
+        <v>284</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="E78" s="1">
         <v>59</v>
@@ -17554,18 +17758,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:63">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>358</v>
+        <v>287</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>359</v>
+        <v>288</v>
       </c>
       <c r="E79" s="1">
         <v>57</v>
@@ -17745,18 +17949,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:63">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>360</v>
+        <v>289</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>121</v>
+        <v>290</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>361</v>
+        <v>291</v>
       </c>
       <c r="E80" s="1">
         <v>60</v>
@@ -17936,18 +18140,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:63">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>363</v>
+        <v>293</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="E81" s="1">
         <v>61</v>
@@ -18127,18 +18331,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:63">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>366</v>
+        <v>297</v>
       </c>
       <c r="E82" s="1">
         <v>63</v>
@@ -18318,18 +18522,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:63">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>367</v>
+        <v>298</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>368</v>
+        <v>299</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="E83" s="1">
         <v>66</v>
@@ -18509,18 +18713,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:63">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>370</v>
+        <v>301</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>371</v>
+        <v>302</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>372</v>
+        <v>303</v>
       </c>
       <c r="E84" s="1">
         <v>65</v>
@@ -18700,18 +18904,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:63">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="E85" s="1">
         <v>64</v>
@@ -18891,18 +19095,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:63">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>124</v>
+        <v>307</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="E86" s="1">
         <v>67</v>
@@ -19082,18 +19286,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:63">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="E87" s="1">
         <v>68</v>
@@ -19273,18 +19477,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:63">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="E88" s="1">
         <v>77</v>
@@ -19464,18 +19668,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:63">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>380</v>
+        <v>314</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>382</v>
+        <v>316</v>
       </c>
       <c r="E89" s="1">
         <v>78</v>
@@ -19655,18 +19859,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:63">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="E90" s="1">
         <v>-1</v>
@@ -19846,18 +20050,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:63">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>385</v>
+        <v>320</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>386</v>
+        <v>321</v>
       </c>
       <c r="E91" s="1">
         <v>-1</v>
@@ -20037,18 +20241,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:63">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>128</v>
+        <v>323</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>387</v>
+        <v>324</v>
       </c>
       <c r="E92" s="1">
         <v>-1</v>
@@ -20228,18 +20432,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:63">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>129</v>
+        <v>326</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="E93" s="1">
         <v>-1</v>
@@ -20419,18 +20623,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:63">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>130</v>
+        <v>328</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>390</v>
+        <v>329</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>391</v>
+        <v>330</v>
       </c>
       <c r="E94" s="1">
         <v>-1</v>
@@ -20610,18 +20814,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:63">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>393</v>
+        <v>332</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>394</v>
+        <v>333</v>
       </c>
       <c r="E95" s="1">
         <v>-1</v>
@@ -20801,18 +21005,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:63">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>395</v>
+        <v>334</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>396</v>
+        <v>335</v>
       </c>
       <c r="E96" s="1">
         <v>-1</v>
@@ -20992,18 +21196,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:63">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>397</v>
+        <v>336</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>396</v>
+        <v>335</v>
       </c>
       <c r="E97" s="1">
         <v>92</v>
@@ -21183,18 +21387,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:63">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>398</v>
+        <v>337</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>399</v>
+        <v>338</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>131</v>
+        <v>339</v>
       </c>
       <c r="E98" s="1">
         <v>-1</v>
@@ -21374,18 +21578,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:63">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>131</v>
+        <v>339</v>
       </c>
       <c r="E99" s="1">
         <v>-1</v>
@@ -21565,18 +21769,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:63">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>402</v>
+        <v>342</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>131</v>
+        <v>339</v>
       </c>
       <c r="E100" s="1">
         <v>-1</v>
@@ -21756,18 +21960,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:63">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>133</v>
+        <v>345</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>131</v>
+        <v>339</v>
       </c>
       <c r="E101" s="1">
         <v>-1</v>
@@ -21947,18 +22151,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:63">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>118</v>
+        <v>272</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>405</v>
+        <v>347</v>
       </c>
       <c r="E102" s="1">
         <v>-1</v>
@@ -22138,18 +22342,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:63">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>406</v>
+        <v>348</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>407</v>
+        <v>349</v>
       </c>
       <c r="E103" s="1">
         <v>-1</v>
@@ -22329,18 +22533,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:63">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>134</v>
+        <v>350</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>135</v>
+        <v>351</v>
       </c>
       <c r="E104" s="1">
         <v>-1</v>
@@ -22520,18 +22724,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:63">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>136</v>
+        <v>354</v>
       </c>
       <c r="E105" s="1">
         <v>-1</v>
@@ -22711,18 +22915,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:63">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>410</v>
+        <v>355</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>137</v>
+        <v>356</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
       <c r="E106" s="1">
         <v>-1</v>
@@ -22902,18 +23106,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:63">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>413</v>
+        <v>359</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>138</v>
+        <v>360</v>
       </c>
       <c r="E107" s="1">
         <v>-1</v>
@@ -23093,18 +23297,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:63">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>358</v>
+        <v>287</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="E108" s="1">
         <v>-1</v>
@@ -23284,18 +23488,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:63">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>139</v>
+        <v>364</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="E109" s="1">
         <v>-1</v>
@@ -23475,18 +23679,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:63">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>140</v>
+        <v>367</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="E110" s="1">
         <v>-1</v>
@@ -23666,18 +23870,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:63">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="E111" s="1">
         <v>-1</v>
@@ -23857,18 +24061,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:63">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>422</v>
+        <v>371</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>118</v>
+        <v>272</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="E112" s="1">
         <v>-1</v>
@@ -24048,18 +24252,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:63">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="E113" s="1">
         <v>-1</v>
@@ -24239,18 +24443,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:63">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="E114" s="1">
         <v>-1</v>
@@ -24430,18 +24634,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:63">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>141</v>
+        <v>379</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="E115" s="1">
         <v>-1</v>
@@ -24621,18 +24825,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:63">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>142</v>
+        <v>381</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="E116" s="1">
         <v>-1</v>
@@ -24812,18 +25016,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:63">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>143</v>
+        <v>382</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="E117" s="1">
         <v>-1</v>
@@ -25003,18 +25207,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:63">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>144</v>
+        <v>385</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="E118" s="1">
         <v>-1</v>
@@ -25194,18 +25398,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:63">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>435</v>
+        <v>389</v>
       </c>
       <c r="E119" s="1">
         <v>-1</v>
@@ -25385,18 +25589,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:63">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="E120" s="1">
         <v>-1</v>
@@ -25576,18 +25780,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:63">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="E121" s="1">
         <v>-1</v>
@@ -25767,18 +25971,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:63">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="E122" s="1">
         <v>-1</v>
@@ -25958,18 +26162,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:63">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="E123" s="1">
         <v>-1</v>
@@ -26149,18 +26353,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:63">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>447</v>
+        <v>401</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="E124" s="1">
         <v>-1</v>
@@ -26340,18 +26544,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:63">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="E125" s="1">
         <v>-1</v>
@@ -26531,18 +26735,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:63">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="E126" s="1">
         <v>-1</v>
@@ -26722,18 +26926,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:63">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>146</v>
+        <v>408</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>147</v>
+        <v>409</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>148</v>
+        <v>410</v>
       </c>
       <c r="E127" s="1">
         <v>-1</v>
@@ -26913,18 +27117,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:63">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>149</v>
+        <v>411</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>150</v>
+        <v>412</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>151</v>
+        <v>413</v>
       </c>
       <c r="E128" s="1">
         <v>-1</v>
@@ -27104,18 +27308,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:63">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>152</v>
+        <v>414</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>153</v>
+        <v>415</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="E129" s="1">
         <v>-1</v>
@@ -27295,18 +27499,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:63">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="E130" s="1">
         <v>-1</v>
@@ -27486,18 +27690,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:63">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>154</v>
+        <v>420</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="E131" s="1">
         <v>-1</v>
@@ -27677,18 +27881,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:63">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="E132" s="1">
         <v>-1</v>
@@ -27868,18 +28072,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:63">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="E133" s="1">
         <v>-1</v>
@@ -28059,18 +28263,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:63">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="E134" s="1">
         <v>-1</v>
@@ -28250,18 +28454,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:63">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>466</v>
+        <v>429</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="E135" s="1">
         <v>-1</v>
@@ -28441,18 +28645,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:63">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>469</v>
+        <v>432</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>471</v>
+        <v>434</v>
       </c>
       <c r="E136" s="1">
         <v>-1</v>
@@ -28632,18 +28836,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:63">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="E137" s="1">
         <v>-1</v>
@@ -28823,18 +29027,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:63">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>155</v>
+        <v>438</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>156</v>
+        <v>439</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="E138" s="1">
         <v>-1</v>
@@ -29014,18 +29218,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:63">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="E139" s="1">
         <v>-1</v>
@@ -29205,18 +29409,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:63">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>157</v>
+        <v>443</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>158</v>
+        <v>444</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>159</v>
+        <v>445</v>
       </c>
       <c r="E140" s="1">
         <v>-1</v>
@@ -29396,18 +29600,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:63">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>160</v>
+        <v>446</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>159</v>
+        <v>445</v>
       </c>
       <c r="E141" s="1">
         <v>-1</v>
@@ -29587,18 +29791,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:63">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>159</v>
+        <v>445</v>
       </c>
       <c r="E142" s="1">
         <v>-1</v>
@@ -29778,18 +29982,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:63">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>161</v>
+        <v>448</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>162</v>
+        <v>449</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>159</v>
+        <v>445</v>
       </c>
       <c r="E143" s="1">
         <v>-1</v>
@@ -29969,18 +30173,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:63">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>163</v>
+        <v>450</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>164</v>
+        <v>451</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>159</v>
+        <v>445</v>
       </c>
       <c r="E144" s="1">
         <v>-1</v>
@@ -30160,18 +30364,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:63">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>165</v>
+        <v>452</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>166</v>
+        <v>453</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>167</v>
+        <v>454</v>
       </c>
       <c r="E145" s="1">
         <v>-1</v>
@@ -30351,18 +30555,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:63">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="E146" s="1">
         <v>-1</v>
@@ -30542,18 +30746,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:63">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>168</v>
+        <v>459</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="E147" s="1">
         <v>-1</v>
@@ -30733,18 +30937,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:63">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="E148" s="1">
         <v>-1</v>
@@ -30924,18 +31128,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:63">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="E149" s="1">
         <v>-1</v>
@@ -31115,18 +31319,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:63">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>169</v>
+        <v>465</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="E150" s="1">
         <v>-1</v>
@@ -31306,18 +31510,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:63">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="E151" s="1">
         <v>-1</v>
@@ -31497,18 +31701,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:63">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="E152" s="1">
         <v>-1</v>
@@ -31688,18 +31892,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:63">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>171</v>
+        <v>471</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="E153" s="1">
         <v>-1</v>
@@ -31879,18 +32083,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:63">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="E154" s="1">
         <v>-1</v>
@@ -32070,18 +32274,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:63">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="E155" s="1">
         <v>-1</v>
@@ -32261,18 +32465,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:63">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="E156" s="1">
         <v>-1</v>
@@ -32452,18 +32656,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:63">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>172</v>
+        <v>479</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="E157" s="1">
         <v>-1</v>
@@ -32643,18 +32847,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:63">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="E158" s="1">
         <v>-1</v>
@@ -32834,18 +33038,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:63">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="E159" s="1">
         <v>-1</v>
@@ -33025,18 +33229,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:63">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>173</v>
+        <v>484</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="E160" s="1">
         <v>-1</v>
@@ -33216,18 +33420,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:63">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>174</v>
+        <v>487</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="E161" s="1">
         <v>-1</v>
@@ -33407,18 +33611,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:63">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="E162" s="1">
         <v>-1</v>
@@ -33598,18 +33802,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:63">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="E163" s="1">
         <v>-1</v>
@@ -33789,18 +33993,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:63">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="E164" s="1">
         <v>-1</v>
@@ -33980,18 +34184,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:63">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="E165" s="1">
         <v>-1</v>
@@ -34171,18 +34375,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:63">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="E166" s="1">
         <v>-1</v>
@@ -34362,18 +34566,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:63">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="E167" s="1">
         <v>-1</v>
@@ -34553,18 +34757,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:63">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="E168" s="1">
         <v>-1</v>
@@ -34744,18 +34948,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:63">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="E169" s="1">
         <v>-1</v>
@@ -34935,18 +35139,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:63">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="E170" s="1">
         <v>-1</v>
@@ -35126,18 +35330,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:63">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="E171" s="1">
         <v>-1</v>
@@ -35317,18 +35521,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:63">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="E172" s="1">
         <v>-1</v>
@@ -35508,18 +35712,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:63">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="E173" s="1">
         <v>-1</v>
@@ -35699,18 +35903,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:63">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>175</v>
+        <v>521</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>176</v>
+        <v>522</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="E174" s="1">
         <v>-1</v>
@@ -35890,18 +36094,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:63">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>177</v>
+        <v>525</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="E175" s="1">
         <v>-1</v>
@@ -36081,18 +36285,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:63">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="E176" s="1">
         <v>-1</v>
@@ -36272,18 +36476,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:63">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="E177" s="1">
         <v>-1</v>
@@ -36463,18 +36667,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:63">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="E178" s="1">
         <v>-1</v>
@@ -36654,18 +36858,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:63">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="E179" s="1">
         <v>-1</v>
@@ -36845,18 +37049,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:63">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="E180" s="1">
         <v>-1</v>
@@ -37036,18 +37240,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:63">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="E181" s="1">
         <v>-1</v>
@@ -37227,18 +37431,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:63">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="E182" s="1">
         <v>-1</v>
@@ -37418,18 +37622,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:63">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>178</v>
+        <v>548</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>177</v>
+        <v>525</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="E183" s="1">
         <v>-1</v>
@@ -37609,18 +37813,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:63">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="E184" s="1">
         <v>-1</v>
@@ -37800,18 +38004,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:63">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="E185" s="1">
         <v>-1</v>
@@ -37991,18 +38195,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:63">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>179</v>
+        <v>556</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>180</v>
+        <v>557</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="E186" s="1">
         <v>-1</v>
@@ -38182,18 +38386,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:63">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>181</v>
+        <v>560</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="E187" s="1">
         <v>-1</v>
@@ -38373,18 +38577,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:63">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>182</v>
+        <v>562</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>183</v>
+        <v>563</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E188" s="1">
         <v>-1</v>
@@ -38564,18 +38768,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:63">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E189" s="1">
         <v>-1</v>
@@ -38755,18 +38959,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:63">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E190" s="1">
         <v>-1</v>
@@ -38946,18 +39150,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:63">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>184</v>
+        <v>569</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>185</v>
+        <v>570</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E191" s="1">
         <v>-1</v>
@@ -39137,18 +39341,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:63">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E192" s="1">
         <v>-1</v>
@@ -39328,18 +39532,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:63">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>177</v>
+        <v>525</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E193" s="1">
         <v>-1</v>
@@ -39519,18 +39723,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:63">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>186</v>
+        <v>578</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E194" s="1">
         <v>-1</v>
@@ -39710,18 +39914,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:63">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>187</v>
+        <v>581</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E195" s="1">
         <v>-1</v>
@@ -39901,18 +40105,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:63">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>188</v>
+        <v>585</v>
       </c>
       <c r="E196" s="1">
         <v>-1</v>
@@ -40092,18 +40296,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:63">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E197" s="1">
         <v>-1</v>
@@ -40283,18 +40487,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:63">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E198" s="1">
         <v>-1</v>
@@ -40474,18 +40678,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:63">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>189</v>
+        <v>591</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>190</v>
+        <v>592</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E199" s="1">
         <v>-1</v>
@@ -40665,18 +40869,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:63">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E200" s="1">
         <v>-1</v>
@@ -40856,18 +41060,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:63">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="D201" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E201" s="1">
         <v>-1</v>
@@ -41048,8 +41252,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/jyx2/excel/JYX2物品.xlsx
+++ b/jyx2/excel/JYX2物品.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17860"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -1408,7 +1408,7 @@
     <t>天龙</t>
   </si>
   <si>
-    <t>射鵰英雄传</t>
+    <t>射雕英雄传</t>
   </si>
   <si>
     <t>射</t>
@@ -1438,10 +1438,48 @@
     <t>书剑</t>
   </si>
   <si>
-    <t>神鵰侠侣</t>
-  </si>
-  <si>
-    <t>神鵰侠</t>
+    <t>神雕侠侣</t>
+  </si>
+  <si>
+    <r>
+      <t>神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>侠</t>
+    </r>
   </si>
   <si>
     <t>侠客行</t>
@@ -1812,12 +1850,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1837,6 +1875,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1844,16 +1883,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1868,7 +1906,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1876,7 +1921,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1897,38 +1979,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1942,50 +2026,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1997,13 +2041,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2015,97 +2197,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2117,67 +2221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2188,15 +2232,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2211,45 +2246,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2288,6 +2284,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2296,10 +2340,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2308,16 +2352,25 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2326,124 +2379,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2852,13 +2896,13 @@
   <sheetPr/>
   <dimension ref="A1:BK201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U65" sqref="U65"/>
+      <selection pane="bottomLeft" activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:63">
       <c r="A1" s="1" t="s">
@@ -31323,7 +31367,7 @@
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>464</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -32278,10 +32322,10 @@
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="2" t="s">
         <v>475</v>
       </c>
       <c r="D155" s="1" t="s">

--- a/jyx2/excel/JYX2物品.xlsx
+++ b/jyx2/excel/JYX2物品.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0455E0-0105-4006-A561-85A2FDBB0AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17860"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -1449,7 +1455,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t></t>
     </r>
@@ -1467,7 +1473,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t></t>
     </r>
@@ -1650,9 +1656,6 @@
     <t>闯王藏宝</t>
   </si>
   <si>
-    <t>乌笔峰下，坐标（６４，５１）</t>
-  </si>
-  <si>
     <t>玉笛谁家听落梅</t>
   </si>
   <si>
@@ -1843,19 +1846,17 @@
   </si>
   <si>
     <t>最后</t>
+  </si>
+  <si>
+    <t>乌笔峰下，坐标（３１６，３１６）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1866,7 +1867,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1875,358 +1876,40 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2234,332 +1917,47 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2888,23 +2286,26 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B150" sqref="B150"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3095,7 +2496,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3286,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3477,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3668,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3859,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:63">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4050,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4241,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4432,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4623,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4814,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5005,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5196,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5387,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:63">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5578,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:63">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5769,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:63">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5960,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:63">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6151,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:63">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6342,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:63">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6533,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:63">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6724,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:63">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6915,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:63">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -7106,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:63">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -7297,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:63">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -7488,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:63">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -7679,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:63">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -7870,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:63">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8061,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:63">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8252,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:63">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8443,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:63">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8634,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:63">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8825,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:63">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -9016,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:63">
+    <row r="33" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9207,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:63">
+    <row r="34" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9398,7 +8799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:63">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -9589,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:63">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9780,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:63">
+    <row r="37" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9971,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:63">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -10162,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:63">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -10353,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:63">
+    <row r="40" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -10544,7 +9945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:63">
+    <row r="41" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -10735,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:63">
+    <row r="42" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -10926,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:63">
+    <row r="43" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -11117,7 +10518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:63">
+    <row r="44" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -11308,7 +10709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:63">
+    <row r="45" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -11499,7 +10900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:63">
+    <row r="46" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -11690,7 +11091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:63">
+    <row r="47" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -11881,7 +11282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:63">
+    <row r="48" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -12072,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:63">
+    <row r="49" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -12263,7 +11664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:63">
+    <row r="50" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -12454,7 +11855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:63">
+    <row r="51" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -12645,7 +12046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:63">
+    <row r="52" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -12836,7 +12237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:63">
+    <row r="53" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -13027,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:63">
+    <row r="54" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -13218,7 +12619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:63">
+    <row r="55" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -13409,7 +12810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:63">
+    <row r="56" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -13600,7 +13001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:63">
+    <row r="57" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -13791,7 +13192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:63">
+    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -13982,7 +13383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:63">
+    <row r="59" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -14173,7 +13574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:63">
+    <row r="60" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -14364,7 +13765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:63">
+    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -14555,7 +13956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:63">
+    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -14746,7 +14147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:63">
+    <row r="63" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -14937,7 +14338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:63">
+    <row r="64" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -15128,7 +14529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:63">
+    <row r="65" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -15319,7 +14720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:63">
+    <row r="66" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -15510,7 +14911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:63">
+    <row r="67" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -15701,7 +15102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:63">
+    <row r="68" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -15892,7 +15293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:63">
+    <row r="69" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -16083,7 +15484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:63">
+    <row r="70" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -16274,7 +15675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:63">
+    <row r="71" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -16465,7 +15866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:63">
+    <row r="72" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -16656,7 +16057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:63">
+    <row r="73" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -16847,7 +16248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:63">
+    <row r="74" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -17038,7 +16439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:63">
+    <row r="75" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -17229,7 +16630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:63">
+    <row r="76" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -17420,7 +16821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:63">
+    <row r="77" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -17611,7 +17012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:63">
+    <row r="78" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -17802,7 +17203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:63">
+    <row r="79" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -17993,7 +17394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:63">
+    <row r="80" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -18184,7 +17585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:63">
+    <row r="81" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -18375,7 +17776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:63">
+    <row r="82" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -18566,7 +17967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:63">
+    <row r="83" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -18757,7 +18158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:63">
+    <row r="84" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -18948,7 +18349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:63">
+    <row r="85" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -19139,7 +18540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:63">
+    <row r="86" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -19330,7 +18731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:63">
+    <row r="87" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -19521,7 +18922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:63">
+    <row r="88" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -19712,7 +19113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:63">
+    <row r="89" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -19903,7 +19304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:63">
+    <row r="90" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -20094,7 +19495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:63">
+    <row r="91" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -20285,7 +19686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:63">
+    <row r="92" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -20476,7 +19877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:63">
+    <row r="93" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -20667,7 +20068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:63">
+    <row r="94" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -20858,7 +20259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:63">
+    <row r="95" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -21049,7 +20450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:63">
+    <row r="96" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -21240,7 +20641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:63">
+    <row r="97" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -21431,7 +20832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:63">
+    <row r="98" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -21622,7 +21023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:63">
+    <row r="99" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -21813,7 +21214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:63">
+    <row r="100" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -22004,7 +21405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:63">
+    <row r="101" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -22195,7 +21596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:63">
+    <row r="102" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -22386,7 +21787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:63">
+    <row r="103" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -22577,7 +21978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:63">
+    <row r="104" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -22768,7 +22169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:63">
+    <row r="105" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -22959,7 +22360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:63">
+    <row r="106" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -23150,7 +22551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:63">
+    <row r="107" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -23341,7 +22742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:63">
+    <row r="108" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -23532,7 +22933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:63">
+    <row r="109" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -23723,7 +23124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:63">
+    <row r="110" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -23914,7 +23315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:63">
+    <row r="111" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -24105,7 +23506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:63">
+    <row r="112" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -24296,7 +23697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:63">
+    <row r="113" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -24487,7 +23888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:63">
+    <row r="114" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -24678,7 +24079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:63">
+    <row r="115" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -24869,7 +24270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:63">
+    <row r="116" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -25060,7 +24461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:63">
+    <row r="117" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -25251,7 +24652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:63">
+    <row r="118" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -25442,7 +24843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:63">
+    <row r="119" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -25633,7 +25034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:63">
+    <row r="120" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -25824,7 +25225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:63">
+    <row r="121" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -26015,7 +25416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:63">
+    <row r="122" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -26206,7 +25607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:63">
+    <row r="123" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -26397,7 +25798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:63">
+    <row r="124" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -26588,7 +25989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:63">
+    <row r="125" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -26779,7 +26180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:63">
+    <row r="126" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -26970,7 +26371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:63">
+    <row r="127" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -27161,7 +26562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:63">
+    <row r="128" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -27352,7 +26753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:63">
+    <row r="129" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -27543,7 +26944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:63">
+    <row r="130" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -27734,7 +27135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:63">
+    <row r="131" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -27925,7 +27326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:63">
+    <row r="132" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -28116,7 +27517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:63">
+    <row r="133" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -28307,7 +27708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:63">
+    <row r="134" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -28498,7 +27899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:63">
+    <row r="135" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -28689,7 +28090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:63">
+    <row r="136" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -28880,7 +28281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:63">
+    <row r="137" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -29071,7 +28472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:63">
+    <row r="138" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -29262,7 +28663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:63">
+    <row r="139" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -29453,7 +28854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:63">
+    <row r="140" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -29644,7 +29045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:63">
+    <row r="141" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -29835,7 +29236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:63">
+    <row r="142" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -30026,7 +29427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:63">
+    <row r="143" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -30217,7 +29618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:63">
+    <row r="144" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -30408,7 +29809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:63">
+    <row r="145" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -30599,7 +30000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:63">
+    <row r="146" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -30790,7 +30191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:63">
+    <row r="147" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -30981,7 +30382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:63">
+    <row r="148" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -31172,7 +30573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:63">
+    <row r="149" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -31363,7 +30764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:63">
+    <row r="150" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -31554,7 +30955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:63">
+    <row r="151" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -31745,7 +31146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:63">
+    <row r="152" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -31936,7 +31337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:63">
+    <row r="153" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -32127,7 +31528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:63">
+    <row r="154" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -32318,7 +31719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:63">
+    <row r="155" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -32509,7 +31910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:63">
+    <row r="156" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -32700,7 +32101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:63">
+    <row r="157" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -32891,7 +32292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:63">
+    <row r="158" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -33082,7 +32483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:63">
+    <row r="159" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -33273,7 +32674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:63">
+    <row r="160" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -33464,7 +32865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:63">
+    <row r="161" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -33655,7 +33056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:63">
+    <row r="162" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -33846,7 +33247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:63">
+    <row r="163" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -34037,7 +33438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:63">
+    <row r="164" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -34228,7 +33629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:63">
+    <row r="165" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -34419,7 +33820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:63">
+    <row r="166" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -34610,7 +34011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:63">
+    <row r="167" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -34801,7 +34202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:63">
+    <row r="168" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -34992,7 +34393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:63">
+    <row r="169" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -35183,7 +34584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:63">
+    <row r="170" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -35374,7 +34775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:63">
+    <row r="171" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -35565,7 +34966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:63">
+    <row r="172" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -35756,7 +35157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:63">
+    <row r="173" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -35947,7 +35348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:63">
+    <row r="174" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -36138,7 +35539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:63">
+    <row r="175" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -36329,7 +35730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:63">
+    <row r="176" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -36520,7 +35921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:63">
+    <row r="177" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -36530,8 +35931,8 @@
       <c r="C177" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>532</v>
+      <c r="D177" s="3" t="s">
+        <v>596</v>
       </c>
       <c r="E177" s="1">
         <v>-1</v>
@@ -36711,18 +36112,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:63">
+    <row r="178" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="E178" s="1">
         <v>-1</v>
@@ -36902,18 +36303,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:63">
+    <row r="179" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="E179" s="1">
         <v>-1</v>
@@ -37093,18 +36494,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:63">
+    <row r="180" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>541</v>
       </c>
       <c r="E180" s="1">
         <v>-1</v>
@@ -37284,18 +36685,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:63">
+    <row r="181" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="E181" s="1">
         <v>-1</v>
@@ -37475,18 +36876,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:63">
+    <row r="182" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>547</v>
       </c>
       <c r="E182" s="1">
         <v>-1</v>
@@ -37666,18 +37067,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:63">
+    <row r="183" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>525</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E183" s="1">
         <v>-1</v>
@@ -37857,18 +37258,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:63">
+    <row r="184" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="E184" s="1">
         <v>-1</v>
@@ -38048,18 +37449,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:63">
+    <row r="185" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="E185" s="1">
         <v>-1</v>
@@ -38239,18 +37640,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:63">
+    <row r="186" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="E186" s="1">
         <v>-1</v>
@@ -38430,18 +37831,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:63">
+    <row r="187" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="E187" s="1">
         <v>-1</v>
@@ -38621,18 +38022,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:63">
+    <row r="188" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="E188" s="1">
         <v>-1</v>
@@ -38812,18 +38213,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:63">
+    <row r="189" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>483</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E189" s="1">
         <v>-1</v>
@@ -39003,18 +38404,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:63">
+    <row r="190" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="D190" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E190" s="1">
         <v>-1</v>
@@ -39194,18 +38595,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:63">
+    <row r="191" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="E191" s="1">
         <v>-1</v>
@@ -39385,18 +38786,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:63">
+    <row r="192" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="E192" s="1">
         <v>-1</v>
@@ -39576,18 +38977,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:63">
+    <row r="193" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>525</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E193" s="1">
         <v>-1</v>
@@ -39767,18 +39168,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:63">
+    <row r="194" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="E194" s="1">
         <v>-1</v>
@@ -39958,18 +39359,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:63">
+    <row r="195" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="E195" s="1">
         <v>-1</v>
@@ -40149,18 +39550,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:63">
+    <row r="196" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="E196" s="1">
         <v>-1</v>
@@ -40340,18 +39741,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:63">
+    <row r="197" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E197" s="1">
         <v>-1</v>
@@ -40531,18 +39932,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:63">
+    <row r="198" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="E198" s="1">
         <v>-1</v>
@@ -40722,18 +40123,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:63">
+    <row r="199" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>593</v>
       </c>
       <c r="E199" s="1">
         <v>-1</v>
@@ -40913,18 +40314,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:63">
+    <row r="200" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E200" s="1">
         <v>-1</v>
@@ -41104,18 +40505,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:63">
+    <row r="201" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="D201" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E201" s="1">
         <v>-1</v>
@@ -41296,8 +40697,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jyx2/excel/JYX2物品.xlsx
+++ b/jyx2/excel/JYX2物品.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0455E0-0105-4006-A561-85A2FDBB0AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17860"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -1455,7 +1449,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t></t>
     </r>
@@ -1473,7 +1467,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t></t>
     </r>
@@ -1656,6 +1650,9 @@
     <t>闯王藏宝</t>
   </si>
   <si>
+    <t>乌笔峰下，坐标（６４，５１）</t>
+  </si>
+  <si>
     <t>玉笛谁家听落梅</t>
   </si>
   <si>
@@ -1846,17 +1843,19 @@
   </si>
   <si>
     <t>最后</t>
-  </si>
-  <si>
-    <t>乌笔峰下，坐标（３１６，３１６）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1867,7 +1866,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1876,40 +1875,358 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1917,47 +2234,332 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2286,26 +2888,23 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +3095,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2687,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2878,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3069,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3260,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3451,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3642,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3833,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4024,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4215,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4406,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4597,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4788,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4979,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5170,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5361,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5552,7 +6151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5743,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5934,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6125,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6316,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6507,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6698,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6889,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -7080,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -7271,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -7462,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -7653,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -7844,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8035,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8226,7 +8825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:63">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8417,7 +9016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8608,7 +9207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8799,7 +9398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -8990,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9181,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:63">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9372,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -9563,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -9754,7 +10353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:63">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9945,7 +10544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:63">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -10136,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:63">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -10327,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:63">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -10518,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:63">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -10709,7 +11308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:63">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -10900,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:63">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -11091,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:63">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -11282,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:63">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -11473,7 +12072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:63">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -11664,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:63">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -11855,7 +12454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:63">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -12046,7 +12645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:63">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -12237,7 +12836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:63">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -12428,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:63">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -12619,7 +13218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:63">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -12810,7 +13409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:63">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -13001,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:63">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -13192,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:63">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -13383,7 +13982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:63">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -13574,7 +14173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:63">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -13765,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:63">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -13956,7 +14555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:63">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -14147,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:63">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -14338,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:63">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -14529,7 +15128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:63">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -14720,7 +15319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:63">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -14911,7 +15510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:63">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -15102,7 +15701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:63">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -15293,7 +15892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:63">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -15484,7 +16083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:63">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -15675,7 +16274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:63">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -15866,7 +16465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:63">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -16057,7 +16656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:63">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -16248,7 +16847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:63">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -16439,7 +17038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:63">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -16630,7 +17229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:63">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -16821,7 +17420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:63">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -17012,7 +17611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:63">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -17203,7 +17802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:63">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -17394,7 +17993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:63">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -17585,7 +18184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:63">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -17776,7 +18375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:63">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -17967,7 +18566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:63">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -18158,7 +18757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:63">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -18349,7 +18948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:63">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -18540,7 +19139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:63">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -18731,7 +19330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:63">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -18922,7 +19521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:63">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -19113,7 +19712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:63">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -19304,7 +19903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:63">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -19495,7 +20094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:63">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -19686,7 +20285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:63">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -19877,7 +20476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:63">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -20068,7 +20667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:63">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -20259,7 +20858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:63">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -20450,7 +21049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:63">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -20641,7 +21240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:63">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -20832,7 +21431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:63">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -21023,7 +21622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:63">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -21214,7 +21813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:63">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -21405,7 +22004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:63">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -21596,7 +22195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:63">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -21787,7 +22386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:63">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -21978,7 +22577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:63">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -22169,7 +22768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:63">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -22360,7 +22959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:63">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -22551,7 +23150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:63">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -22742,7 +23341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:63">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -22933,7 +23532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:63">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -23124,7 +23723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:63">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -23315,7 +23914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:63">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -23506,7 +24105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:63">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -23697,7 +24296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:63">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -23888,7 +24487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:63">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -24079,7 +24678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:63">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -24270,7 +24869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:63">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -24461,7 +25060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:63">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -24652,7 +25251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:63">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -24843,7 +25442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:63">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -25034,7 +25633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:63">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -25225,7 +25824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:63">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -25416,7 +26015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:63">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -25607,7 +26206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:63">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -25798,7 +26397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:63">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -25989,7 +26588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:63">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -26180,7 +26779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:63">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -26371,7 +26970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:63">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -26562,7 +27161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:63">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -26753,7 +27352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:63">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -26944,7 +27543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:63">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -27135,7 +27734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:63">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -27326,7 +27925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:63">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -27517,7 +28116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:63">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -27708,7 +28307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:63">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -27899,7 +28498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:63">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -28090,7 +28689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:63">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -28281,7 +28880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:63">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -28472,7 +29071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:63">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -28663,7 +29262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:63">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -28854,7 +29453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:63">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -29045,7 +29644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:63">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -29236,7 +29835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:63">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -29427,7 +30026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:63">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -29618,7 +30217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:63">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -29809,7 +30408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:63">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -30000,7 +30599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:63">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -30191,7 +30790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:63">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -30382,7 +30981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:63">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -30573,7 +31172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:63">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -30764,7 +31363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:63">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -30955,7 +31554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:63">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -31146,7 +31745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:63">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -31337,7 +31936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:63">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -31528,7 +32127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:63">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -31719,7 +32318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:63">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -31910,7 +32509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:63">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -32101,7 +32700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:63">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -32292,7 +32891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:63">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -32483,7 +33082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:63">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -32674,7 +33273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:63">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -32865,7 +33464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:63">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -33056,7 +33655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:63">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -33247,7 +33846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:63">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -33438,7 +34037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:63">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -33629,7 +34228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:63">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -33820,7 +34419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:63">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -34011,7 +34610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:63">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -34202,7 +34801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:63">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -34393,7 +34992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:63">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -34584,7 +35183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:63">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -34775,7 +35374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:63">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -34966,7 +35565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:63">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -35157,7 +35756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:63">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -35348,7 +35947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:63">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -35539,7 +36138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:63">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -35730,7 +36329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:63">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -35921,7 +36520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:63">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -35931,8 +36530,8 @@
       <c r="C177" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D177" s="3" t="s">
-        <v>596</v>
+      <c r="D177" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="E177" s="1">
         <v>-1</v>
@@ -36112,18 +36711,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:63">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E178" s="1">
         <v>-1</v>
@@ -36303,18 +36902,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:63">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E179" s="1">
         <v>-1</v>
@@ -36494,18 +37093,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:63">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E180" s="1">
         <v>-1</v>
@@ -36685,18 +37284,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:63">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E181" s="1">
         <v>-1</v>
@@ -36876,18 +37475,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:63">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E182" s="1">
         <v>-1</v>
@@ -37067,18 +37666,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:63">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>525</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E183" s="1">
         <v>-1</v>
@@ -37258,18 +37857,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:63">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E184" s="1">
         <v>-1</v>
@@ -37449,18 +38048,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:63">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E185" s="1">
         <v>-1</v>
@@ -37640,18 +38239,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:63">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E186" s="1">
         <v>-1</v>
@@ -37831,18 +38430,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:63">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E187" s="1">
         <v>-1</v>
@@ -38022,18 +38621,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:63">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E188" s="1">
         <v>-1</v>
@@ -38213,18 +38812,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:63">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>483</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E189" s="1">
         <v>-1</v>
@@ -38404,18 +39003,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:63">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="E190" s="1">
         <v>-1</v>
@@ -38595,18 +39194,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:63">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E191" s="1">
         <v>-1</v>
@@ -38786,18 +39385,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:63">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E192" s="1">
         <v>-1</v>
@@ -38977,18 +39576,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:63">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>525</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E193" s="1">
         <v>-1</v>
@@ -39168,18 +39767,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:63">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E194" s="1">
         <v>-1</v>
@@ -39359,18 +39958,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:63">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E195" s="1">
         <v>-1</v>
@@ -39550,18 +40149,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:63">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E196" s="1">
         <v>-1</v>
@@ -39741,18 +40340,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:63">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E197" s="1">
         <v>-1</v>
@@ -39932,18 +40531,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:63">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E198" s="1">
         <v>-1</v>
@@ -40123,18 +40722,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:63">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E199" s="1">
         <v>-1</v>
@@ -40314,18 +40913,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:63">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E200" s="1">
         <v>-1</v>
@@ -40505,18 +41104,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:63">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C201" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="E201" s="1">
         <v>-1</v>
@@ -40697,8 +41296,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>